--- a/外部計画書/外部設計書（変更）.xlsx
+++ b/外部計画書/外部設計書（変更）.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13605" windowHeight="6450" tabRatio="732" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13605" windowHeight="6450" tabRatio="732" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <sheet name="画面10" sheetId="15" r:id="rId17"/>
     <sheet name="画面11" sheetId="19" r:id="rId18"/>
     <sheet name="論理データ" sheetId="16" r:id="rId19"/>
-    <sheet name="変更詳細" sheetId="24" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能!$D$7:$O$22</definedName>
@@ -168,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="278">
   <si>
     <t>（田隈　広紀様）</t>
   </si>
@@ -1242,10 +1241,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>ⅸ</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>ⅺ</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -1642,30 +1637,6 @@
   </si>
   <si>
     <t>出荷情報登録確認</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>変更箇所詳細</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>なし</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>泉</t>
-    <rPh sb="0" eb="1">
-      <t>イズミ</t>
-    </rPh>
     <phoneticPr fontId="14"/>
   </si>
   <si>
@@ -2203,7 +2174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2393,38 +2364,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2459,6 +2409,36 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2486,14 +2466,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2504,34 +2487,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2543,53 +2520,29 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -17247,10 +17200,10 @@
       <c r="O1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="64">
+      <c r="P1" s="78">
         <v>42156</v>
       </c>
-      <c r="Q1" s="65"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:17" ht="21">
       <c r="A2" s="37"/>
@@ -17267,11 +17220,11 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:17" ht="18.75">
       <c r="A3" s="37"/>
@@ -17316,17 +17269,17 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -17337,15 +17290,15 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -17356,15 +17309,15 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -17412,19 +17365,19 @@
       <c r="A10" s="37"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="49"/>
@@ -17433,17 +17386,17 @@
       <c r="A11" s="37"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="49"/>
@@ -17452,17 +17405,17 @@
       <c r="A12" s="37"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="49"/>
@@ -17472,17 +17425,17 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -17493,15 +17446,15 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -17512,15 +17465,15 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -17531,15 +17484,15 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -17550,15 +17503,15 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -17589,15 +17542,15 @@
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
       <c r="E19" s="38"/>
-      <c r="F19" s="80" t="s">
+      <c r="F19" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
       <c r="M19" s="40"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -17610,13 +17563,13 @@
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
       <c r="E20" s="40"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
       <c r="M20" s="40"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -17629,13 +17582,13 @@
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="40"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
       <c r="M21" s="40"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -17648,13 +17601,13 @@
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="40"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
       <c r="M22" s="40"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -17667,13 +17620,13 @@
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="40"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
       <c r="M23" s="40"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -17686,13 +17639,13 @@
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
       <c r="E24" s="40"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
       <c r="M24" s="40"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -17705,13 +17658,13 @@
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
       <c r="E25" s="40"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
       <c r="M25" s="40"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -17724,13 +17677,13 @@
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
       <c r="M26" s="40"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -17786,14 +17739,14 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="68" t="s">
+      <c r="K29" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="70"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="84"/>
       <c r="Q29" s="49"/>
     </row>
     <row r="30" spans="1:17" ht="17.25">
@@ -17807,18 +17760,18 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="71" t="s">
+      <c r="K30" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72" t="s">
+      <c r="L30" s="86"/>
+      <c r="M30" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72" t="s">
+      <c r="N30" s="86"/>
+      <c r="O30" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="P30" s="73"/>
+      <c r="P30" s="87"/>
       <c r="Q30" s="49"/>
     </row>
     <row r="31" spans="1:17">
@@ -17832,12 +17785,12 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="78"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="71"/>
       <c r="Q31" s="49"/>
     </row>
     <row r="32" spans="1:17">
@@ -17851,12 +17804,12 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="78"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="71"/>
       <c r="Q32" s="49"/>
     </row>
     <row r="33" spans="1:17">
@@ -17870,12 +17823,12 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="78"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="71"/>
       <c r="Q33" s="49"/>
     </row>
     <row r="34" spans="1:17">
@@ -17889,12 +17842,12 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="78"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="71"/>
       <c r="Q34" s="49"/>
     </row>
     <row r="35" spans="1:17">
@@ -17908,12 +17861,12 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="78"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="71"/>
       <c r="Q35" s="49"/>
     </row>
     <row r="36" spans="1:17">
@@ -17927,12 +17880,12 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="79"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="72"/>
       <c r="Q36" s="49"/>
     </row>
     <row r="37" spans="1:17">
@@ -17956,6 +17909,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
     <mergeCell ref="K31:L36"/>
     <mergeCell ref="M31:N36"/>
     <mergeCell ref="O31:P36"/>
@@ -17963,12 +17922,6 @@
     <mergeCell ref="E5:M7"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="D10:N12"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18008,26 +17961,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
@@ -18122,7 +18075,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>75</v>
@@ -18760,26 +18713,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
@@ -19512,26 +19465,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
@@ -19626,19 +19579,19 @@
       <c r="A7" s="7"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" s="113" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -20266,26 +20219,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
@@ -20380,19 +20333,19 @@
       <c r="A7" s="7"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="113" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -21021,26 +20974,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
@@ -21135,19 +21088,19 @@
       <c r="A7" s="7"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -21773,26 +21726,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
@@ -21887,19 +21840,19 @@
       <c r="A7" s="7"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" s="113" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -22526,26 +22479,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
@@ -22640,19 +22593,19 @@
       <c r="A7" s="7"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7" s="113" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -23279,26 +23232,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
@@ -23393,19 +23346,19 @@
       <c r="A7" s="7"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="113" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -24032,26 +23985,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="52" t="s">
         <v>13</v>
       </c>
@@ -24146,19 +24099,19 @@
       <c r="A7" s="7"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="113" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -24764,8 +24717,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
@@ -24786,26 +24739,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
@@ -25562,26 +25515,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
@@ -26342,756 +26295,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor indexed="30"/>
-  </sheetPr>
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="2" customWidth="1"/>
-    <col min="12" max="15" width="10.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="2"/>
-    <col min="19" max="19" width="3.25" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
-        <f>表紙_外部!D10</f>
-        <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
-      </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="91" t="s">
-        <v>278</v>
-      </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="N1" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="P1" s="19">
-        <f>表紙_外部!P1</f>
-        <v>42156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1"/>
-    <row r="3" spans="1:16">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="20"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="21"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="21"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="21"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="21"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="21"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="21"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="21"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="21"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="21"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="21"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="21"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="21"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="21"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="21"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="21"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="21"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="21"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="21"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="21"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="21"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="21"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="21"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="21"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="21"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="21"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="21"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="21"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="21"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="21"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="21"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="21"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="21"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="21"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="21"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="21"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-  </mergeCells>
-  <phoneticPr fontId="14"/>
-  <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -27099,8 +26302,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H8"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
@@ -27121,26 +26324,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
@@ -27244,20 +26447,20 @@
       <c r="D7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="94" t="s">
+      <c r="F7" s="105"/>
+      <c r="G7" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="94" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="95"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="3" t="s">
         <v>44</v>
       </c>
@@ -27275,30 +26478,30 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="114" t="s">
+      <c r="E8" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="114" t="s">
+      <c r="F8" s="99"/>
+      <c r="G8" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="114" t="s">
+      <c r="H8" s="99"/>
+      <c r="I8" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="117" t="s">
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="117" t="s">
+      <c r="N8" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="117" t="s">
+      <c r="O8" s="63" t="s">
         <v>52</v>
       </c>
       <c r="P8" s="21">
@@ -27310,30 +26513,30 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="118" t="s">
+      <c r="D9" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="114" t="s">
+      <c r="E9" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="115"/>
-      <c r="G9" s="114" t="s">
+      <c r="F9" s="99"/>
+      <c r="G9" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="115"/>
-      <c r="I9" s="114" t="s">
+      <c r="H9" s="99"/>
+      <c r="I9" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="117" t="s">
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="117" t="s">
+      <c r="N9" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="117" t="s">
+      <c r="O9" s="63" t="s">
         <v>53</v>
       </c>
       <c r="P9" s="21">
@@ -27345,30 +26548,30 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="E10" s="114" t="s">
-        <v>281</v>
-      </c>
-      <c r="F10" s="115"/>
-      <c r="G10" s="114" t="s">
+      <c r="E10" s="98" t="s">
+        <v>277</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="115"/>
-      <c r="I10" s="114" t="s">
+      <c r="H10" s="99"/>
+      <c r="I10" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="117" t="s">
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="117" t="s">
+      <c r="N10" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="117" t="s">
+      <c r="O10" s="63" t="s">
         <v>56</v>
       </c>
       <c r="P10" s="21">
@@ -27380,30 +26583,30 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="118" t="s">
+      <c r="D11" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="114" t="s">
+      <c r="E11" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="115"/>
-      <c r="G11" s="114" t="s">
+      <c r="F11" s="99"/>
+      <c r="G11" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="114" t="s">
+      <c r="H11" s="99"/>
+      <c r="I11" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="117" t="s">
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="117" t="s">
+      <c r="N11" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="117" t="s">
+      <c r="O11" s="63" t="s">
         <v>52</v>
       </c>
       <c r="P11" s="21">
@@ -27418,20 +26621,20 @@
       <c r="D12" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="97" t="s">
+      <c r="F12" s="102"/>
+      <c r="G12" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="97" t="s">
+      <c r="H12" s="102"/>
+      <c r="I12" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="98"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="102"/>
       <c r="M12" s="29" t="s">
         <v>50</v>
       </c>
@@ -27453,20 +26656,20 @@
       <c r="D13" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="E13" s="97" t="s">
+      <c r="E13" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="97" t="s">
+      <c r="F13" s="102"/>
+      <c r="G13" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="97" t="s">
+      <c r="H13" s="102"/>
+      <c r="I13" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="98"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="102"/>
       <c r="M13" s="29" t="s">
         <v>50</v>
       </c>
@@ -27488,20 +26691,20 @@
       <c r="D14" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="E14" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="97" t="s">
+      <c r="E14" s="101" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14" s="102"/>
+      <c r="G14" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="97" t="s">
+      <c r="H14" s="102"/>
+      <c r="I14" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="98"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="102"/>
       <c r="M14" s="29" t="s">
         <v>50</v>
       </c>
@@ -27523,20 +26726,20 @@
       <c r="D15" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="E15" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="97" t="s">
+      <c r="F15" s="102"/>
+      <c r="G15" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="97" t="s">
+      <c r="H15" s="102"/>
+      <c r="I15" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="98"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="102"/>
       <c r="M15" s="29" t="s">
         <v>50</v>
       </c>
@@ -27555,30 +26758,30 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="E16" s="97" t="s">
+      <c r="D16" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="97" t="s">
+      <c r="F16" s="99"/>
+      <c r="G16" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="97" t="s">
+      <c r="H16" s="99"/>
+      <c r="I16" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="29" t="s">
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="29" t="s">
+      <c r="N16" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="O16" s="29" t="s">
+      <c r="O16" s="63" t="s">
         <v>56</v>
       </c>
       <c r="P16" s="21">
@@ -27590,30 +26793,30 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="E17" s="114" t="s">
+      <c r="E17" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="115"/>
-      <c r="G17" s="114" t="s">
+      <c r="F17" s="99"/>
+      <c r="G17" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="115"/>
-      <c r="I17" s="114" t="s">
+      <c r="H17" s="99"/>
+      <c r="I17" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="117" t="s">
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="117" t="s">
+      <c r="N17" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="117" t="s">
+      <c r="O17" s="63" t="s">
         <v>52</v>
       </c>
       <c r="P17" s="21">
@@ -27625,30 +26828,30 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="118" t="s">
-        <v>220</v>
-      </c>
-      <c r="E18" s="114" t="s">
+      <c r="D18" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="F18" s="115"/>
-      <c r="G18" s="114" t="s">
+      <c r="F18" s="99"/>
+      <c r="G18" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="H18" s="115"/>
-      <c r="I18" s="114" t="s">
+      <c r="H18" s="99"/>
+      <c r="I18" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="117" t="s">
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="117" t="s">
+      <c r="N18" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="O18" s="117" t="s">
+      <c r="O18" s="63" t="s">
         <v>53</v>
       </c>
       <c r="P18" s="21">
@@ -27660,30 +26863,30 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="118" t="s">
+      <c r="D19" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="114" t="s">
+      <c r="E19" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="115"/>
-      <c r="G19" s="114" t="s">
+      <c r="F19" s="99"/>
+      <c r="G19" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="115"/>
-      <c r="I19" s="114" t="s">
+      <c r="H19" s="99"/>
+      <c r="I19" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="117" t="s">
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="N19" s="117" t="s">
+      <c r="N19" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="O19" s="117" t="s">
+      <c r="O19" s="63" t="s">
         <v>53</v>
       </c>
       <c r="P19" s="21">
@@ -27695,30 +26898,30 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="118" t="s">
+      <c r="D20" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="115"/>
-      <c r="G20" s="114" t="s">
+      <c r="F20" s="99"/>
+      <c r="G20" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="H20" s="115"/>
-      <c r="I20" s="114" t="s">
+      <c r="H20" s="99"/>
+      <c r="I20" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="117" t="s">
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="N20" s="117" t="s">
+      <c r="N20" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="O20" s="117" t="s">
+      <c r="O20" s="63" t="s">
         <v>53</v>
       </c>
       <c r="P20" s="21">
@@ -27730,30 +26933,30 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="114" t="s">
+      <c r="E21" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="115"/>
-      <c r="G21" s="114" t="s">
+      <c r="F21" s="99"/>
+      <c r="G21" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="115"/>
-      <c r="I21" s="114" t="s">
+      <c r="H21" s="99"/>
+      <c r="I21" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="117" t="s">
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="N21" s="117" t="s">
+      <c r="N21" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="O21" s="117" t="s">
+      <c r="O21" s="63" t="s">
         <v>56</v>
       </c>
       <c r="P21" s="21">
@@ -27766,14 +26969,14 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
       <c r="M22" s="27"/>
       <c r="N22" s="30"/>
       <c r="O22" s="31" t="s">
@@ -27782,6 +26985,2154 @@
       <c r="P22" s="21">
         <f>SUM(P8:P21)</f>
         <v>2330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="32">
+        <v>1</v>
+      </c>
+      <c r="O24" s="32">
+        <v>50</v>
+      </c>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="O25" s="33">
+        <v>150</v>
+      </c>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="O26" s="33">
+        <v>300</v>
+      </c>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="D7:O22"/>
+  <mergeCells count="51">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:L21"/>
+  </mergeCells>
+  <phoneticPr fontId="14"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
+      <formula1>"入力,出力,処理,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N21">
+      <formula1>"低,中,高,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O21">
+      <formula1>"小,中,大"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor indexed="30"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.25" style="2" customWidth="1"/>
+    <col min="13" max="15" width="10.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="2"/>
+    <col min="19" max="19" width="3.25" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A1" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
+        <f>表紙_外部!D10</f>
+        <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
+      </c>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="19">
+        <f>表紙_外部!P1</f>
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1"/>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="20"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="21"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="21"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="21"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="105"/>
+      <c r="G7" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="105"/>
+      <c r="I7" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="108"/>
+      <c r="G8" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" s="108"/>
+      <c r="I8" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="21">
+        <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$24,IF(N8="中",$N$25,$N$26))*IF(O8="小",$O$24,IF(O8="中",$O$25,$O$26))))</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="99"/>
+      <c r="G9" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" s="99"/>
+      <c r="I9" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="21">
+        <f t="shared" ref="P9" si="0">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="99"/>
+      <c r="I10" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="21">
+        <f t="shared" ref="P10:P21" si="1">IF(N10="",0,IF(O10="",0,IF(N10="低",$N$24,IF(N10="中",$N$25,$N$26))*IF(O10="小",$O$24,IF(O10="中",$O$25,$O$26))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="102"/>
+      <c r="G11" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="102"/>
+      <c r="I11" s="101" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="102"/>
+      <c r="G12" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="102"/>
+      <c r="I12" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="102"/>
+      <c r="G13" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="102"/>
+      <c r="I13" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="99"/>
+      <c r="G14" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="99"/>
+      <c r="I14" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="99"/>
+      <c r="G15" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="99"/>
+      <c r="I15" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="99"/>
+      <c r="G16" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="99"/>
+      <c r="I16" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="102"/>
+      <c r="G17" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="102"/>
+      <c r="I17" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="99"/>
+      <c r="G18" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="99"/>
+      <c r="I18" s="98" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="21">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="102"/>
+      <c r="G19" s="101" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="102"/>
+      <c r="I19" s="101" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="21">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="99"/>
+      <c r="G20" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="99"/>
+      <c r="I20" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" s="21">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="102"/>
+      <c r="G21" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="H21" s="102"/>
+      <c r="I21" s="101" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" s="21">
+        <f>SUM(P8:P21)</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="32">
+        <v>1</v>
+      </c>
+      <c r="O24" s="32">
+        <v>50</v>
+      </c>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="O25" s="33">
+        <v>150</v>
+      </c>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="O26" s="33">
+        <v>300</v>
+      </c>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="D7:O22"/>
+  <mergeCells count="51">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:L21"/>
+  </mergeCells>
+  <phoneticPr fontId="14"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
+      <formula1>"入力,出力,処理,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N21">
+      <formula1>"低,中,高,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O21">
+      <formula1>"小,中,大"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor indexed="30"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.25" style="2" customWidth="1"/>
+    <col min="13" max="15" width="10.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="2"/>
+    <col min="19" max="19" width="3.25" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A1" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
+        <f>表紙_外部!D10</f>
+        <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
+      </c>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="19">
+        <f>表紙_外部!P1</f>
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1"/>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="20"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="21"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="21"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="21"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="105"/>
+      <c r="G7" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="105"/>
+      <c r="I7" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="64">
+        <v>1</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="99"/>
+      <c r="G8" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="99"/>
+      <c r="I8" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N8" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="21">
+        <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$24,IF(N8="中",$N$25,$N$26))*IF(O8="小",$O$24,IF(O8="中",$O$25,$O$26))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="64">
+        <v>2</v>
+      </c>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="H9" s="99"/>
+      <c r="I9" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N9" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="21">
+        <f t="shared" ref="P9:P21" si="0">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="64">
+        <v>3</v>
+      </c>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="98" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="99"/>
+      <c r="I10" s="98" t="s">
+        <v>237</v>
+      </c>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N10" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="65">
+        <v>4</v>
+      </c>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="107" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="108"/>
+      <c r="I11" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="N11" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="64">
+        <v>5</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="99"/>
+      <c r="I12" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N12" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="64">
+        <v>6</v>
+      </c>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="H13" s="99"/>
+      <c r="I13" s="98" t="s">
+        <v>239</v>
+      </c>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N13" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="64">
+        <v>7</v>
+      </c>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="98" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="99"/>
+      <c r="I14" s="98" t="s">
+        <v>240</v>
+      </c>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N14" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="64">
+        <v>8</v>
+      </c>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="H15" s="99"/>
+      <c r="I15" s="98" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N15" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="64">
+        <v>9</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="99"/>
+      <c r="G16" s="98" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="99"/>
+      <c r="I16" s="98" t="s">
+        <v>242</v>
+      </c>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="64">
+        <v>10</v>
+      </c>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" s="99"/>
+      <c r="I17" s="98" t="s">
+        <v>243</v>
+      </c>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="64">
+        <v>11</v>
+      </c>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="98" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="99"/>
+      <c r="I18" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="64">
+        <v>12</v>
+      </c>
+      <c r="E19" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="99"/>
+      <c r="G19" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" s="99"/>
+      <c r="I19" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="21">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="64">
+        <v>13</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="99"/>
+      <c r="G20" s="98" t="s">
+        <v>232</v>
+      </c>
+      <c r="H20" s="99"/>
+      <c r="I20" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N20" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="64">
+        <v>14</v>
+      </c>
+      <c r="E21" s="98" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="99"/>
+      <c r="G21" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="H21" s="99"/>
+      <c r="I21" s="98" t="s">
+        <v>251</v>
+      </c>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N21" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" s="21">
+        <f>SUM(P8:P21)</f>
+        <v>1330</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -28159,18 +29510,18 @@
   </mergeCells>
   <phoneticPr fontId="14"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
-      <formula1>"入力,出力,処理,その他"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O21">
+      <formula1>"小,中,大"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N21">
       <formula1>"低,中,高,その他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O21">
-      <formula1>"小,中,大"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
+      <formula1>"入力,出力,処理,その他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -28178,15 +29529,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="30"/>
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F10"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
@@ -28209,33 +29560,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="52" t="s">
         <v>15</v>
       </c>
       <c r="O1" s="18" t="s">
@@ -28326,27 +29677,27 @@
       <c r="D7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="94" t="s">
+      <c r="F7" s="105"/>
+      <c r="G7" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="94" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="3" t="s">
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="52" t="s">
         <v>46</v>
       </c>
       <c r="P7" s="28" t="s">
@@ -28357,69 +29708,69 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="124" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="125" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="125" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="126"/>
-      <c r="I8" s="125" t="s">
-        <v>162</v>
-      </c>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="128" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="128" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="128" t="s">
-        <v>56</v>
+      <c r="D8" s="26">
+        <v>15</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="102"/>
+      <c r="G8" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" s="102"/>
+      <c r="I8" s="101" t="s">
+        <v>264</v>
+      </c>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="P8" s="21">
         <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$24,IF(N8="中",$N$25,$N$26))*IF(O8="小",$O$24,IF(O8="中",$O$25,$O$26))))</f>
-        <v>420</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="27.75" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="118" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="114" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="115"/>
-      <c r="G9" s="114" t="s">
-        <v>269</v>
-      </c>
-      <c r="H9" s="115"/>
-      <c r="I9" s="114" t="s">
-        <v>201</v>
-      </c>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="117" t="s">
+      <c r="D9" s="26">
+        <v>16</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="102"/>
+      <c r="G9" s="101" t="s">
+        <v>254</v>
+      </c>
+      <c r="H9" s="102"/>
+      <c r="I9" s="101" t="s">
+        <v>263</v>
+      </c>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="N9" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="117" t="s">
+      <c r="O9" s="29" t="s">
         <v>52</v>
       </c>
       <c r="P9" s="21">
-        <f t="shared" ref="P9" si="0">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
+        <f t="shared" ref="P9:P21" si="0">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
         <v>50</v>
       </c>
     </row>
@@ -28427,34 +29778,34 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="118" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="114" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="115"/>
-      <c r="G10" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="115"/>
-      <c r="I10" s="114" t="s">
-        <v>173</v>
-      </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="117" t="s">
+      <c r="D10" s="64">
+        <v>17</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="98" t="s">
+        <v>255</v>
+      </c>
+      <c r="H10" s="99"/>
+      <c r="I10" s="98" t="s">
+        <v>256</v>
+      </c>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N10" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="117" t="s">
+      <c r="O10" s="63" t="s">
         <v>52</v>
       </c>
       <c r="P10" s="21">
-        <f t="shared" ref="P10:P21" si="1">IF(N10="",0,IF(O10="",0,IF(N10="低",$N$24,IF(N10="中",$N$25,$N$26))*IF(O10="小",$O$24,IF(O10="中",$O$25,$O$26))))</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -28462,385 +29813,259 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="97" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="98"/>
-      <c r="I11" s="97" t="s">
-        <v>174</v>
-      </c>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="29" t="s">
+      <c r="D11" s="64">
+        <v>18</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="98" t="s">
+        <v>258</v>
+      </c>
+      <c r="H11" s="99"/>
+      <c r="I11" s="98" t="s">
+        <v>259</v>
+      </c>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>52</v>
+      <c r="N11" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="63" t="s">
+        <v>56</v>
       </c>
       <c r="P11" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="27.75" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="97" t="s">
-        <v>175</v>
-      </c>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="29" t="s">
+      <c r="D12" s="64">
+        <v>19</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" s="99"/>
+      <c r="I12" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="N12" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" s="29" t="s">
+      <c r="N12" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="63" t="s">
         <v>52</v>
       </c>
       <c r="P12" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N13" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>52</v>
-      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="27.75" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="118" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="114" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="115"/>
-      <c r="G14" s="114" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="115"/>
-      <c r="I14" s="114" t="s">
-        <v>190</v>
-      </c>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="117" t="s">
-        <v>52</v>
-      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="27.75" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="118" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="114" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="115"/>
-      <c r="G15" s="114" t="s">
-        <v>191</v>
-      </c>
-      <c r="H15" s="115"/>
-      <c r="I15" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="N15" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="117" t="s">
-        <v>52</v>
-      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
       <c r="P15" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="27.75" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="118" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="114" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="115"/>
-      <c r="G16" s="114" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="115"/>
-      <c r="I16" s="114" t="s">
-        <v>177</v>
-      </c>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="117" t="s">
-        <v>52</v>
-      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
       <c r="P16" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="27.75" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="E17" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="98"/>
-      <c r="I17" s="97" t="s">
-        <v>198</v>
-      </c>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>52</v>
-      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
       <c r="P17" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="27.75" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="118" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="114" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="115"/>
-      <c r="G18" s="114" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="115"/>
-      <c r="I18" s="114" t="s">
-        <v>178</v>
-      </c>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="O18" s="117" t="s">
-        <v>53</v>
-      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
       <c r="P18" s="21">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="27.75" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" s="98"/>
-      <c r="I19" s="97" t="s">
-        <v>196</v>
-      </c>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N19" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="O19" s="29" t="s">
-        <v>56</v>
-      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
       <c r="P19" s="21">
-        <f t="shared" si="1"/>
-        <v>420</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="27.75" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="118" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="114" t="s">
-        <v>171</v>
-      </c>
-      <c r="F20" s="115"/>
-      <c r="G20" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="115"/>
-      <c r="I20" s="114" t="s">
-        <v>199</v>
-      </c>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" s="117" t="s">
-        <v>53</v>
-      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
       <c r="P20" s="21">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="27.75" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="97" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" s="98"/>
-      <c r="G21" s="97" t="s">
-        <v>200</v>
-      </c>
-      <c r="H21" s="98"/>
-      <c r="I21" s="97" t="s">
-        <v>193</v>
-      </c>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N21" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O21" s="29" t="s">
-        <v>52</v>
-      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="27.75" customHeight="1">
@@ -28848,14 +30073,14 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
       <c r="M22" s="27"/>
       <c r="N22" s="30"/>
       <c r="O22" s="31" t="s">
@@ -28863,1073 +30088,7 @@
       </c>
       <c r="P22" s="21">
         <f>SUM(P8:P21)</f>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="22"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="32">
-        <v>1</v>
-      </c>
-      <c r="O24" s="32">
-        <v>50</v>
-      </c>
-      <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="33">
-        <v>1.2</v>
-      </c>
-      <c r="O25" s="33">
-        <v>150</v>
-      </c>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="33">
-        <v>1.4</v>
-      </c>
-      <c r="O26" s="33">
-        <v>300</v>
-      </c>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="D7:O22"/>
-  <mergeCells count="51">
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
-  </mergeCells>
-  <phoneticPr fontId="14"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
-      <formula1>"入力,出力,処理,その他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N21">
-      <formula1>"低,中,高,その他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O21">
-      <formula1>"小,中,大"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor indexed="30"/>
-  </sheetPr>
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.25" style="2" customWidth="1"/>
-    <col min="13" max="15" width="10.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="2"/>
-    <col min="19" max="19" width="3.25" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
-        <f>表紙_外部!D10</f>
-        <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
-      </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="19">
-        <f>表紙_外部!P1</f>
-        <v>42156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1"/>
-    <row r="3" spans="1:16">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="20"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="21"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="21"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="21"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="118">
-        <v>1</v>
-      </c>
-      <c r="E8" s="114" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="114" t="s">
-        <v>222</v>
-      </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="114" t="s">
-        <v>236</v>
-      </c>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="117" t="s">
-        <v>221</v>
-      </c>
-      <c r="N8" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="21">
-        <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$24,IF(N8="中",$N$25,$N$26))*IF(O8="小",$O$24,IF(O8="中",$O$25,$O$26))))</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="118">
-        <v>2</v>
-      </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="H9" s="115"/>
-      <c r="I9" s="114" t="s">
-        <v>237</v>
-      </c>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="117" t="s">
-        <v>221</v>
-      </c>
-      <c r="N9" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="21">
-        <f t="shared" ref="P9:P21" si="0">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="118">
-        <v>3</v>
-      </c>
-      <c r="E10" s="114"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="114" t="s">
-        <v>224</v>
-      </c>
-      <c r="H10" s="115"/>
-      <c r="I10" s="114" t="s">
-        <v>238</v>
-      </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="117" t="s">
-        <v>221</v>
-      </c>
-      <c r="N10" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="118">
-        <v>4</v>
-      </c>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="114" t="s">
-        <v>225</v>
-      </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="114" t="s">
-        <v>239</v>
-      </c>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="117" t="s">
-        <v>221</v>
-      </c>
-      <c r="N11" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="118">
-        <v>5</v>
-      </c>
-      <c r="E12" s="114" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" s="115"/>
-      <c r="G12" s="114" t="s">
-        <v>222</v>
-      </c>
-      <c r="H12" s="115"/>
-      <c r="I12" s="114" t="s">
-        <v>236</v>
-      </c>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="117" t="s">
-        <v>221</v>
-      </c>
-      <c r="N12" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="118">
-        <v>6</v>
-      </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="H13" s="115"/>
-      <c r="I13" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="117" t="s">
-        <v>221</v>
-      </c>
-      <c r="N13" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="118">
-        <v>7</v>
-      </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="114" t="s">
-        <v>224</v>
-      </c>
-      <c r="H14" s="115"/>
-      <c r="I14" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="117" t="s">
-        <v>221</v>
-      </c>
-      <c r="N14" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="118">
-        <v>8</v>
-      </c>
-      <c r="E15" s="114"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="114" t="s">
-        <v>225</v>
-      </c>
-      <c r="H15" s="115"/>
-      <c r="I15" s="114" t="s">
-        <v>242</v>
-      </c>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="117" t="s">
-        <v>221</v>
-      </c>
-      <c r="N15" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="118">
-        <v>9</v>
-      </c>
-      <c r="E16" s="114" t="s">
-        <v>228</v>
-      </c>
-      <c r="F16" s="115"/>
-      <c r="G16" s="114" t="s">
-        <v>229</v>
-      </c>
-      <c r="H16" s="115"/>
-      <c r="I16" s="114" t="s">
-        <v>243</v>
-      </c>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="118">
-        <v>10</v>
-      </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="114" t="s">
-        <v>230</v>
-      </c>
-      <c r="H17" s="115"/>
-      <c r="I17" s="114" t="s">
-        <v>244</v>
-      </c>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="118">
-        <v>11</v>
-      </c>
-      <c r="E18" s="114"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="114" t="s">
-        <v>231</v>
-      </c>
-      <c r="H18" s="115"/>
-      <c r="I18" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="O18" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="21">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="118">
-        <v>12</v>
-      </c>
-      <c r="E19" s="114" t="s">
-        <v>235</v>
-      </c>
-      <c r="F19" s="115"/>
-      <c r="G19" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="H19" s="115"/>
-      <c r="I19" s="114" t="s">
-        <v>246</v>
-      </c>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="N19" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="O19" s="117" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="21">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="118">
-        <v>13</v>
-      </c>
-      <c r="E20" s="114" t="s">
-        <v>234</v>
-      </c>
-      <c r="F20" s="115"/>
-      <c r="G20" s="114" t="s">
-        <v>233</v>
-      </c>
-      <c r="H20" s="115"/>
-      <c r="I20" s="114" t="s">
-        <v>247</v>
-      </c>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="117" t="s">
-        <v>221</v>
-      </c>
-      <c r="N20" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="21">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="118">
-        <v>14</v>
-      </c>
-      <c r="E21" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="F21" s="115"/>
-      <c r="G21" s="114" t="s">
-        <v>251</v>
-      </c>
-      <c r="H21" s="115"/>
-      <c r="I21" s="114" t="s">
-        <v>252</v>
-      </c>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="117" t="s">
-        <v>221</v>
-      </c>
-      <c r="N21" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="O21" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" s="21">
-        <f>SUM(P8:P21)</f>
-        <v>1330</v>
+        <v>640</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -30307,962 +30466,6 @@
   </mergeCells>
   <phoneticPr fontId="14"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O21">
-      <formula1>"小,中,大"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N21">
-      <formula1>"低,中,高,その他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
-      <formula1>"入力,出力,処理,その他"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor indexed="30"/>
-  </sheetPr>
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.25" style="2" customWidth="1"/>
-    <col min="13" max="15" width="10.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="2"/>
-    <col min="19" max="19" width="3.25" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
-        <f>表紙_外部!D10</f>
-        <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
-      </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="19">
-        <f>表紙_外部!P1</f>
-        <v>42156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1"/>
-    <row r="3" spans="1:16">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="20"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="21"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="21"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="21"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="26">
-        <v>15</v>
-      </c>
-      <c r="E8" s="97" t="s">
-        <v>248</v>
-      </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="97" t="s">
-        <v>249</v>
-      </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="21">
-        <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$24,IF(N8="中",$N$25,$N$26))*IF(O8="小",$O$24,IF(O8="中",$O$25,$O$26))))</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="26">
-        <v>16</v>
-      </c>
-      <c r="E9" s="97" t="s">
-        <v>253</v>
-      </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="H9" s="98"/>
-      <c r="I9" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="21">
-        <f t="shared" ref="P9:P21" si="0">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="118">
-        <v>17</v>
-      </c>
-      <c r="E10" s="114" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" s="115"/>
-      <c r="G10" s="114" t="s">
-        <v>256</v>
-      </c>
-      <c r="H10" s="115"/>
-      <c r="I10" s="114" t="s">
-        <v>257</v>
-      </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="117" t="s">
-        <v>221</v>
-      </c>
-      <c r="N10" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="118">
-        <v>18</v>
-      </c>
-      <c r="E11" s="114" t="s">
-        <v>258</v>
-      </c>
-      <c r="F11" s="115"/>
-      <c r="G11" s="114" t="s">
-        <v>259</v>
-      </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="114" t="s">
-        <v>260</v>
-      </c>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="117" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="21">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="118">
-        <v>19</v>
-      </c>
-      <c r="E12" s="114" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="115"/>
-      <c r="G12" s="114" t="s">
-        <v>262</v>
-      </c>
-      <c r="H12" s="115"/>
-      <c r="I12" s="114" t="s">
-        <v>263</v>
-      </c>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="21">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" s="21">
-        <f>SUM(P8:P21)</f>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="22"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="32">
-        <v>1</v>
-      </c>
-      <c r="O24" s="32">
-        <v>50</v>
-      </c>
-      <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="33">
-        <v>1.2</v>
-      </c>
-      <c r="O25" s="33">
-        <v>150</v>
-      </c>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="33">
-        <v>1.4</v>
-      </c>
-      <c r="O26" s="33">
-        <v>300</v>
-      </c>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="D7:O22"/>
-  <mergeCells count="51">
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
-  </mergeCells>
-  <phoneticPr fontId="14"/>
-  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
       <formula1>"入力,出力,処理,その他"</formula1>
     </dataValidation>
@@ -31311,30 +30514,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
-      <c r="F1" s="88" t="str">
+      <c r="F1" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="93"/>
       <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="L1" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="93"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="96"/>
       <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
@@ -31429,21 +30632,21 @@
       <c r="A6" s="55"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="115" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="110" t="s">
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="111"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="103" t="s">
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
       <c r="M6" s="56"/>
       <c r="N6" s="56"/>
       <c r="O6" s="56"/>
@@ -31457,21 +30660,21 @@
       <c r="A7" s="55"/>
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="102" t="s">
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102" t="s">
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
       <c r="M7" s="56"/>
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
@@ -31485,21 +30688,21 @@
       <c r="A8" s="55"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="116" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="102" t="s">
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102" t="s">
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
       <c r="M8" s="56"/>
       <c r="N8" s="56"/>
       <c r="O8" s="56"/>
@@ -31513,21 +30716,21 @@
       <c r="A9" s="55"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="102" t="s">
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102" t="s">
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
       <c r="M9" s="56"/>
       <c r="N9" s="56"/>
       <c r="O9" s="56"/>
@@ -31541,21 +30744,21 @@
       <c r="A10" s="55"/>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="116" t="s">
         <v>207</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="102" t="s">
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102" t="s">
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
       <c r="M10" s="56"/>
       <c r="N10" s="56"/>
       <c r="O10" s="56"/>
@@ -31569,51 +30772,51 @@
       <c r="A11" s="55"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="116" t="s">
         <v>208</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="102" t="s">
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102" t="s">
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
       <c r="M11" s="56"/>
       <c r="N11" s="56"/>
       <c r="O11" s="56"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="101" t="s">
+      <c r="R11" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="S11" s="101"/>
+      <c r="S11" s="118"/>
       <c r="T11" s="21"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="55"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="102" t="s">
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102" t="s">
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
       <c r="M12" s="56"/>
       <c r="N12" s="56"/>
       <c r="O12" s="56"/>
@@ -31627,21 +30830,21 @@
       <c r="A13" s="55"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="116" t="s">
         <v>210</v>
       </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="102" t="s">
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102" t="s">
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
       <c r="M13" s="56"/>
       <c r="N13" s="56"/>
       <c r="O13" s="56"/>
@@ -31655,21 +30858,21 @@
       <c r="A14" s="55"/>
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="102" t="s">
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102" t="s">
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
       <c r="M14" s="56"/>
       <c r="N14" s="56"/>
       <c r="O14" s="56"/>
@@ -31683,21 +30886,21 @@
       <c r="A15" s="55"/>
       <c r="B15" s="56"/>
       <c r="C15" s="56"/>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="116" t="s">
         <v>212</v>
       </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="102" t="s">
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102" t="s">
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
       <c r="M15" s="56"/>
       <c r="N15" s="56"/>
       <c r="O15" s="56"/>
@@ -31711,21 +30914,21 @@
       <c r="A16" s="55"/>
       <c r="B16" s="56"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="116" t="s">
         <v>213</v>
       </c>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="102" t="s">
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102" t="s">
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
       <c r="M16" s="56"/>
       <c r="N16" s="56"/>
       <c r="O16" s="56"/>
@@ -31739,28 +30942,28 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="116" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="105" t="s">
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105" t="s">
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="54"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
       <c r="T17" s="21"/>
     </row>
     <row r="18" spans="1:20">
@@ -31841,8 +31044,8 @@
       <c r="I21" s="54"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -31930,10 +31133,10 @@
       <c r="I25" s="54"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="107"/>
+      <c r="O25" s="119"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -31955,7 +31158,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-      <c r="O26" s="107"/>
+      <c r="O26" s="119"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
@@ -31997,7 +31200,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="107"/>
+      <c r="M28" s="119"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
@@ -32019,7 +31222,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="107"/>
+      <c r="M29" s="119"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
@@ -32041,7 +31244,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="107"/>
+      <c r="M30" s="119"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
@@ -32113,8 +31316,8 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="108"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="120"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="7"/>
@@ -32131,10 +31334,10 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
+      <c r="O34" s="118"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="118"/>
+      <c r="R34" s="118"/>
       <c r="S34" s="9"/>
       <c r="T34" s="21"/>
     </row>
@@ -32172,8 +31375,8 @@
       <c r="I36" s="58"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="109"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="121"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
@@ -32243,9 +31446,9 @@
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101"/>
-      <c r="S39" s="101"/>
+      <c r="Q39" s="118"/>
+      <c r="R39" s="118"/>
+      <c r="S39" s="118"/>
       <c r="T39" s="21"/>
     </row>
     <row r="40" spans="1:20">
@@ -32272,6 +31475,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
@@ -32288,40 +31525,6 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
@@ -32361,26 +31564,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
@@ -32481,7 +31684,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>97</v>
@@ -33119,26 +32322,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
@@ -33233,7 +32436,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>97</v>

--- a/外部計画書/外部設計書（変更）.xlsx
+++ b/外部計画書/外部設計書（変更）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izumi\Documents\GitHub\PMyabukikenC\外部計画書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimada\Documents\GitHub\PMyabukikenC\外部計画書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13605" windowHeight="6450" tabRatio="732" firstSheet="13" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13605" windowHeight="6450" tabRatio="732" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="1" r:id="rId1"/>
@@ -83,6 +83,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="128"/>
           </rPr>
           <t>小：100行未満
 中：100～200行程度
@@ -107,6 +108,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="128"/>
           </rPr>
           <t>小：100行未満
 中：100～200行程度
@@ -131,6 +133,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="128"/>
           </rPr>
           <t>小：100行未満
 中：100～200行程度
@@ -155,6 +158,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="128"/>
           </rPr>
           <t>小：100行未満
 中：100～200行程度
@@ -489,29 +493,29 @@
   </si>
   <si>
     <t>QRコードを使い，野菜の詳細情報を伝えるシステム</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ログイン画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者プロフィール登録完了画面</t>
     <rPh sb="0" eb="3">
       <t>セイサンシャ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画面移行</t>
@@ -521,44 +525,44 @@
     <rPh sb="2" eb="4">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>・生産者ID</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者プロフィール登録確認</t>
     <rPh sb="0" eb="3">
       <t>セイサンシャ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者プロフィール登録完了</t>
     <rPh sb="0" eb="3">
       <t>セイサンシャ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>商品の種類を管理する．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者プロフィール編集ボタンをクリックした場合に表示する．</t>
     <rPh sb="0" eb="3">
       <t>セイサンシャ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>登録ボタンがクリックされた場合に表示する．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>登録完了がクリックされた場合に表示する．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画面名</t>
@@ -610,41 +614,41 @@
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>システムへアクセスした人にログイン画面を表示する．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ログイン失敗</t>
     <rPh sb="4" eb="6">
       <t>シッパイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ログイン失敗画面表示</t>
     <rPh sb="4" eb="6">
       <t>シッパイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者アカウントでログインに成功した場合に表示する．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>登録ボタンがクリックされた場合に表示する．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>登録完了ボタンが押された場合に表示する．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ユーザアカウントでログインに成功した場合に表示する．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者プロフィール登録確認画面の表示</t>
@@ -657,7 +661,7 @@
     <rPh sb="16" eb="18">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者プロフィール登録完了画面の表示</t>
@@ -670,39 +674,39 @@
     <rPh sb="16" eb="18">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>出荷情報登録確認の表示</t>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>出荷情報登録完了の表示</t>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>商品一覧の表示</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者プロフィール編集</t>
     <rPh sb="9" eb="11">
       <t>ヘンシュウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>商品名がクリックされた場合に表示する．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>商品紹介の表示</t>
@@ -712,33 +716,33 @@
     <rPh sb="2" eb="4">
       <t>ショウカイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>①</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>②</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>③</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ログイン判定</t>
     <rPh sb="4" eb="6">
       <t>ハンテイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ログイン処理</t>
     <rPh sb="4" eb="6">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ログイン失敗処理</t>
@@ -748,11 +752,11 @@
     <rPh sb="6" eb="8">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>人が入力する情報を元にログイン成否を判断する．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ログインが失敗したとき，ログイン失敗画面へ移行する．</t>
@@ -768,77 +772,77 @@
     <rPh sb="21" eb="23">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者アカウントでログイン</t>
     <rPh sb="0" eb="3">
       <t>セイサンシャ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>⑤</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>⑥</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>④</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>⑦</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>⑧</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>⑨</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>⑩</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>⑪</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>⑫</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>⑬</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>⑭</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>⑮</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>⑯</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>⑰</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ログイン成功</t>
     <rPh sb="4" eb="6">
       <t>セイコウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者アカウントでログインが成功したとき，生産者アカウント画面へ移行する．</t>
@@ -857,21 +861,21 @@
     <rPh sb="32" eb="34">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>プロフィール編集</t>
     <rPh sb="6" eb="8">
       <t>ヘンシュウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>戻る</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者アカウント画面へボタン処理</t>
@@ -881,21 +885,21 @@
     <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>登録</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>再編集</t>
     <rPh sb="0" eb="3">
       <t>サイヘンシュウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>登録完了</t>
@@ -905,25 +909,25 @@
     <rPh sb="2" eb="4">
       <t>カンリョウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者アカウントへ</t>
     <rPh sb="0" eb="3">
       <t>セイサンシャ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ユーザアカウントでログイン</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>商品名</t>
     <rPh sb="0" eb="3">
       <t>ショウヒンメイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>商品一覧へ戻る</t>
@@ -936,7 +940,7 @@
     <rPh sb="5" eb="6">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>戻るボタンがクリックされた場合，生産者アカウント画面へ移行する．</t>
@@ -946,21 +950,21 @@
     <rPh sb="16" eb="19">
       <t>セイサンシャ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>再編集ボタンがクリックされた場合，生産者プロフィール編集画面へ移行する．</t>
     <rPh sb="17" eb="20">
       <t>セイサンシャ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>登録完了ボタンがクリックされた場合，生産者プロフィール登録完了画面へ移行する．</t>
     <rPh sb="18" eb="21">
       <t>セイサンシャ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>再編集ボタンがクリックされた場合，生産者アカウント画面へ移行する．</t>
@@ -973,18 +977,18 @@
     <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>・生産者の声（デフォルトメッセージ）</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>・商品ID</t>
     <rPh sb="1" eb="3">
       <t>ショウヒン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>・商品の名前</t>
@@ -994,7 +998,7 @@
     <rPh sb="4" eb="6">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>・商品の出荷日</t>
@@ -1004,7 +1008,7 @@
     <rPh sb="4" eb="7">
       <t>シュッカビ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>・商品の生産者の声</t>
@@ -1017,15 +1021,15 @@
     <rPh sb="8" eb="9">
       <t>コエ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>商品紹介サイト画面</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>商品紹介サイト画面</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ログインに失敗した場合に表示する．</t>
@@ -1038,7 +1042,7 @@
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>商品紹介サイトの表示</t>
@@ -1051,7 +1055,7 @@
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>QRコードリーダでQRコードが読み取られた場合に表示する．</t>
@@ -1067,53 +1071,53 @@
     <rPh sb="24" eb="26">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>更新</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者アカウント画面へボタンがクリックされた場合，生産者アカウント画面へ移行する．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>更新ボタン処理</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>更新ボタンがクリックされた場合，出荷情報確認画面へ移行する．</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>商品一覧へ戻るボタンをクリックしたとき商品一覧画面へ移行する．</t>
     <rPh sb="26" eb="28">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ログイン成功</t>
     <rPh sb="4" eb="6">
       <t>セイコウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者アカウント画面へ移行することができる．</t>
     <rPh sb="11" eb="13">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ユーザアカウントでログインが成功したとき，商品一覧画面へ移行する．</t>
@@ -1132,35 +1136,35 @@
     <rPh sb="28" eb="30">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>商品紹介サイト</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>登録完了ボタンがクリックされた場合，出荷情報登録完了画面へ移行する．</t>
     <rPh sb="0" eb="4">
       <t>トウロクカンリョウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>商品名ボタンがクリックされた場合，商品紹介画面へ移行する．</t>
     <rPh sb="17" eb="21">
       <t>ショウヒンショウカイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>商品一覧へ戻るボタン処理</t>
     <rPh sb="0" eb="4">
       <t>ショウヒンイチラン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>プロフィール編集ボタンがクリックされた場合，生産者プロフィール編集画面へ移行する</t>
@@ -1170,79 +1174,79 @@
     <rPh sb="36" eb="38">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>機能名</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅳ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅰ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅱ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅲ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅳ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅴ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅵ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅶ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅷ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅸ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅹ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅺ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅰ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅳ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅵ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅶ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅺ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>入力</t>
@@ -1255,7 +1259,7 @@
     <rPh sb="2" eb="4">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>IDの最大桁数</t>
@@ -1268,7 +1272,7 @@
     <rPh sb="6" eb="7">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>パスワードの最大桁数</t>
@@ -1278,11 +1282,11 @@
     <rPh sb="8" eb="10">
       <t>ケタスウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>Enterキー</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ログイン画面の入力</t>
@@ -1292,7 +1296,7 @@
     <rPh sb="7" eb="9">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ログイン失敗画面の入力</t>
@@ -1305,7 +1309,7 @@
     <rPh sb="9" eb="11">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>追加ボタン処理</t>
@@ -1315,7 +1319,7 @@
     <rPh sb="5" eb="7">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>情報保存</t>
@@ -1325,21 +1329,21 @@
     <rPh sb="2" eb="4">
       <t>ホゾン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ボタン変更</t>
     <rPh sb="3" eb="5">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>テキストボックスの追加</t>
     <rPh sb="9" eb="11">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>デフォルトメッセージの自動入力</t>
@@ -1349,7 +1353,7 @@
     <rPh sb="13" eb="15">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者の声の編集</t>
@@ -1362,7 +1366,7 @@
     <rPh sb="6" eb="8">
       <t>ヘンシュウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者の声の入力</t>
@@ -1375,7 +1379,7 @@
     <rPh sb="6" eb="8">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>自動入力</t>
@@ -1385,55 +1389,55 @@
     <rPh sb="2" eb="4">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>IDとパスワードは英数字で入力される．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>IDは12桁まで入力可能である．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>パスワードは36桁まで入力可能とし，文字は「*」で表示する．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>Enterキーの押下でログインボタンのクリックと同様の動作を行う．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>IDは12桁まで入力可能である．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>パスワードは36桁まで入力可能とし，文字は「*」で表示する．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>Enterキーの押下でログインボタンのクリックと同様の動作を行う．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>追加ボタンの左にあるバーの内容が登録され，データベースに保存される．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>クリックされた追加ボタンが更新ボタンに変更される．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>「＊」の右にあった空白バーと追加ボタンが一番下に登録されている商品情報と更新ボタンの下に追加される．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者の声のテキストボックスには画面４のデフォルトメッセージが入る．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者の声をデフォルトメッセージごと編集できる．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>氏名入力</t>
@@ -1443,7 +1447,7 @@
     <rPh sb="2" eb="4">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>氏名の入力</t>
@@ -1453,7 +1457,7 @@
     <rPh sb="3" eb="5">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>写真情報</t>
@@ -1463,7 +1467,7 @@
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>写真画像の選択</t>
@@ -1476,11 +1480,11 @@
     <rPh sb="5" eb="7">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ファイルの選択ボタンをクリックするとパソコンの外部記憶装置の中にある画像データを選択できる．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産地入力</t>
@@ -1490,11 +1494,11 @@
     <rPh sb="3" eb="5">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>デフォルトメッセージ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産地の入力</t>
@@ -1504,14 +1508,14 @@
     <rPh sb="4" eb="6">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>デフォルトメッセージの入力</t>
     <rPh sb="11" eb="13">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>デフォルトメッセージの下にテキストボックスを設置し入力可能にする．</t>
@@ -1527,7 +1531,7 @@
     <rPh sb="27" eb="29">
       <t>カノウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>保存ボタン処理</t>
@@ -1537,7 +1541,7 @@
     <rPh sb="5" eb="7">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画像保存</t>
@@ -1547,11 +1551,11 @@
     <rPh sb="2" eb="4">
       <t>ホゾン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>保存ボタンをクリックすると同じ列のQRコードの画像データのダウンロードが開始され，外部記録装置に保存される．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画像データ名</t>
@@ -1561,7 +1565,7 @@
     <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>保存した画像の名前</t>
@@ -1574,74 +1578,74 @@
     <rPh sb="7" eb="9">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>保存された画像データの名前は「商品名_ID」となるようにする．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産地の右にテキストボックスを設置し文字を入力可能にする．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>氏名の右にテキストボックスを設置し文字を入力可能にする．</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅰ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅱ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅲ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>プロフィール編集ボタンの処理</t>
     <rPh sb="6" eb="8">
       <t>ヘンシュウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅴ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅵ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅶ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅷ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅸ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅹ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ⅺ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>出荷情報登録確認</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>生産者アカウント</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
@@ -1738,12 +1742,8 @@
     <font>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -1756,6 +1756,12 @@
       <color theme="1"/>
       <name val="MS UI Gothic"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -2355,7 +2361,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2375,6 +2381,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2409,36 +2445,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2466,8 +2472,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2487,14 +2499,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2505,10 +2511,31 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2519,27 +2546,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -17200,10 +17206,10 @@
       <c r="O1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="78">
+      <c r="P1" s="67">
         <v>42156</v>
       </c>
-      <c r="Q1" s="79"/>
+      <c r="Q1" s="68"/>
     </row>
     <row r="2" spans="1:17" ht="21">
       <c r="A2" s="37"/>
@@ -17220,11 +17226,11 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="80" t="s">
+      <c r="O2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="81"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:17" ht="18.75">
       <c r="A3" s="37"/>
@@ -17269,17 +17275,17 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -17290,15 +17296,15 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -17309,15 +17315,15 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -17365,19 +17371,19 @@
       <c r="A10" s="37"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="49"/>
@@ -17386,17 +17392,17 @@
       <c r="A11" s="37"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="49"/>
@@ -17405,17 +17411,17 @@
       <c r="A12" s="37"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="49"/>
@@ -17425,17 +17431,17 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -17446,15 +17452,15 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -17465,15 +17471,15 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -17484,15 +17490,15 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -17503,15 +17509,15 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -17542,15 +17548,15 @@
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
       <c r="E19" s="38"/>
-      <c r="F19" s="73" t="s">
+      <c r="F19" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
       <c r="M19" s="40"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -17563,13 +17569,13 @@
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
       <c r="E20" s="40"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
       <c r="M20" s="40"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -17582,13 +17588,13 @@
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="40"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
       <c r="M21" s="40"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -17601,13 +17607,13 @@
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="40"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
       <c r="M22" s="40"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -17620,13 +17626,13 @@
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="40"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
       <c r="M23" s="40"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -17639,13 +17645,13 @@
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
       <c r="E24" s="40"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
       <c r="M24" s="40"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -17658,13 +17664,13 @@
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
       <c r="E25" s="40"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
       <c r="M25" s="40"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -17677,13 +17683,13 @@
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
       <c r="M26" s="40"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -17739,14 +17745,14 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="82" t="s">
+      <c r="K29" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="84"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="73"/>
       <c r="Q29" s="49"/>
     </row>
     <row r="30" spans="1:17" ht="17.25">
@@ -17760,18 +17766,18 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="85" t="s">
+      <c r="K30" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86" t="s">
+      <c r="L30" s="75"/>
+      <c r="M30" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86" t="s">
+      <c r="N30" s="75"/>
+      <c r="O30" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="P30" s="87"/>
+      <c r="P30" s="76"/>
       <c r="Q30" s="49"/>
     </row>
     <row r="31" spans="1:17">
@@ -17785,12 +17791,12 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="71"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="81"/>
       <c r="Q31" s="49"/>
     </row>
     <row r="32" spans="1:17">
@@ -17804,12 +17810,12 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="71"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="81"/>
       <c r="Q32" s="49"/>
     </row>
     <row r="33" spans="1:17">
@@ -17823,12 +17829,12 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="71"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="81"/>
       <c r="Q33" s="49"/>
     </row>
     <row r="34" spans="1:17">
@@ -17842,12 +17848,12 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="71"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="81"/>
       <c r="Q34" s="49"/>
     </row>
     <row r="35" spans="1:17">
@@ -17861,12 +17867,12 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="71"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="81"/>
       <c r="Q35" s="49"/>
     </row>
     <row r="36" spans="1:17">
@@ -17880,12 +17886,12 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="72"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="82"/>
       <c r="Q36" s="49"/>
     </row>
     <row r="37" spans="1:17">
@@ -17909,12 +17915,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
     <mergeCell ref="K31:L36"/>
     <mergeCell ref="M31:N36"/>
     <mergeCell ref="O31:P36"/>
@@ -17922,8 +17922,14 @@
     <mergeCell ref="E5:M7"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="D10:N12"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -18675,7 +18681,7 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -18692,7 +18698,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -19427,7 +19433,7 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -20180,7 +20186,7 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="D7:L7"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -20934,7 +20940,7 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="D7:L7"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -21689,7 +21695,7 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="D7:L7"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -22441,7 +22447,7 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="D7:L7"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -23194,7 +23200,7 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="D7:L7"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -23947,7 +23953,7 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="D7:L7"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -24700,7 +24706,7 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="D7:L7"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -24717,8 +24723,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
@@ -25477,7 +25483,7 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -26285,7 +26291,7 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -26447,20 +26453,20 @@
       <c r="D7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="104" t="s">
+      <c r="F7" s="98"/>
+      <c r="G7" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="104" t="s">
+      <c r="H7" s="98"/>
+      <c r="I7" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="105"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="98"/>
       <c r="M7" s="3" t="s">
         <v>44</v>
       </c>
@@ -26481,20 +26487,20 @@
       <c r="D8" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="98" t="s">
+      <c r="F8" s="101"/>
+      <c r="G8" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="98" t="s">
+      <c r="H8" s="101"/>
+      <c r="I8" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="99"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="63" t="s">
         <v>50</v>
       </c>
@@ -26516,20 +26522,20 @@
       <c r="D9" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="98" t="s">
+      <c r="F9" s="101"/>
+      <c r="G9" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="98" t="s">
+      <c r="H9" s="101"/>
+      <c r="I9" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="99"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="101"/>
       <c r="M9" s="63" t="s">
         <v>50</v>
       </c>
@@ -26551,20 +26557,20 @@
       <c r="D10" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="100" t="s">
         <v>277</v>
       </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="98" t="s">
+      <c r="F10" s="101"/>
+      <c r="G10" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="98" t="s">
+      <c r="H10" s="101"/>
+      <c r="I10" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="99"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="63" t="s">
         <v>50</v>
       </c>
@@ -26586,20 +26592,20 @@
       <c r="D11" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="100" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="98" t="s">
+      <c r="F11" s="101"/>
+      <c r="G11" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="98" t="s">
+      <c r="H11" s="101"/>
+      <c r="I11" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="99"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="101"/>
       <c r="M11" s="63" t="s">
         <v>50</v>
       </c>
@@ -26621,20 +26627,20 @@
       <c r="D12" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="101" t="s">
+      <c r="F12" s="104"/>
+      <c r="G12" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="101" t="s">
+      <c r="H12" s="104"/>
+      <c r="I12" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="102"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="104"/>
       <c r="M12" s="29" t="s">
         <v>50</v>
       </c>
@@ -26656,20 +26662,20 @@
       <c r="D13" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="101" t="s">
+      <c r="F13" s="104"/>
+      <c r="G13" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="101" t="s">
+      <c r="H13" s="104"/>
+      <c r="I13" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="102"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="104"/>
       <c r="M13" s="29" t="s">
         <v>50</v>
       </c>
@@ -26691,20 +26697,20 @@
       <c r="D14" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="E14" s="101" t="s">
+      <c r="E14" s="103" t="s">
         <v>276</v>
       </c>
-      <c r="F14" s="102"/>
-      <c r="G14" s="101" t="s">
+      <c r="F14" s="104"/>
+      <c r="G14" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="101" t="s">
+      <c r="H14" s="104"/>
+      <c r="I14" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="102"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="104"/>
       <c r="M14" s="29" t="s">
         <v>50</v>
       </c>
@@ -26726,20 +26732,20 @@
       <c r="D15" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="E15" s="101" t="s">
+      <c r="E15" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="101" t="s">
+      <c r="F15" s="104"/>
+      <c r="G15" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="102"/>
-      <c r="I15" s="101" t="s">
+      <c r="H15" s="104"/>
+      <c r="I15" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="102"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="104"/>
       <c r="M15" s="29" t="s">
         <v>50</v>
       </c>
@@ -26761,20 +26767,20 @@
       <c r="D16" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="98" t="s">
+      <c r="F16" s="101"/>
+      <c r="G16" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="98" t="s">
+      <c r="H16" s="101"/>
+      <c r="I16" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="99"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="101"/>
       <c r="M16" s="63" t="s">
         <v>50</v>
       </c>
@@ -26796,20 +26802,20 @@
       <c r="D17" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="98" t="s">
+      <c r="F17" s="101"/>
+      <c r="G17" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="99"/>
-      <c r="I17" s="98" t="s">
+      <c r="H17" s="101"/>
+      <c r="I17" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="99"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="101"/>
       <c r="M17" s="63" t="s">
         <v>50</v>
       </c>
@@ -26831,20 +26837,20 @@
       <c r="D18" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="98" t="s">
+      <c r="F18" s="101"/>
+      <c r="G18" s="100" t="s">
         <v>187</v>
       </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="98" t="s">
+      <c r="H18" s="101"/>
+      <c r="I18" s="100" t="s">
         <v>188</v>
       </c>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="99"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="101"/>
       <c r="M18" s="63" t="s">
         <v>50</v>
       </c>
@@ -26866,20 +26872,20 @@
       <c r="D19" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="E19" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="98" t="s">
+      <c r="F19" s="101"/>
+      <c r="G19" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="99"/>
-      <c r="I19" s="98" t="s">
+      <c r="H19" s="101"/>
+      <c r="I19" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="99"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="101"/>
       <c r="M19" s="63" t="s">
         <v>54</v>
       </c>
@@ -26901,20 +26907,20 @@
       <c r="D20" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="E20" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="98" t="s">
+      <c r="F20" s="101"/>
+      <c r="G20" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="H20" s="99"/>
-      <c r="I20" s="98" t="s">
+      <c r="H20" s="101"/>
+      <c r="I20" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="99"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="101"/>
       <c r="M20" s="63" t="s">
         <v>54</v>
       </c>
@@ -26936,20 +26942,20 @@
       <c r="D21" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="98" t="s">
+      <c r="F21" s="101"/>
+      <c r="G21" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="99"/>
-      <c r="I21" s="98" t="s">
+      <c r="H21" s="101"/>
+      <c r="I21" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="99"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="101"/>
       <c r="M21" s="63" t="s">
         <v>54</v>
       </c>
@@ -26969,14 +26975,14 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
       <c r="M22" s="27"/>
       <c r="N22" s="30"/>
       <c r="O22" s="31" t="s">
@@ -26985,6 +26991,2154 @@
       <c r="P22" s="21">
         <f>SUM(P8:P21)</f>
         <v>2330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="32">
+        <v>1</v>
+      </c>
+      <c r="O24" s="32">
+        <v>50</v>
+      </c>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="O25" s="33">
+        <v>150</v>
+      </c>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="O26" s="33">
+        <v>300</v>
+      </c>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="D7:O22"/>
+  <mergeCells count="51">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:L7"/>
+  </mergeCells>
+  <phoneticPr fontId="13"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
+      <formula1>"入力,出力,処理,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N21">
+      <formula1>"低,中,高,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O21">
+      <formula1>"小,中,大"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor indexed="30"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.25" style="2" customWidth="1"/>
+    <col min="13" max="15" width="10.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="2"/>
+    <col min="19" max="19" width="3.25" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A1" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
+        <f>表紙_外部!D10</f>
+        <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
+      </c>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="19">
+        <f>表紙_外部!P1</f>
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1"/>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="20"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="21"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="21"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="21"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="98"/>
+      <c r="G7" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="98"/>
+      <c r="I7" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="108"/>
+      <c r="G8" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" s="108"/>
+      <c r="I8" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="21">
+        <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$24,IF(N8="中",$N$25,$N$26))*IF(O8="小",$O$24,IF(O8="中",$O$25,$O$26))))</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="101"/>
+      <c r="G9" s="100" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" s="101"/>
+      <c r="I9" s="100" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="21">
+        <f t="shared" ref="P9" si="0">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="101"/>
+      <c r="G10" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="101"/>
+      <c r="I10" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="21">
+        <f t="shared" ref="P10:P21" si="1">IF(N10="",0,IF(O10="",0,IF(N10="低",$N$24,IF(N10="中",$N$25,$N$26))*IF(O10="小",$O$24,IF(O10="中",$O$25,$O$26))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="103" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="104"/>
+      <c r="G11" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="104"/>
+      <c r="I11" s="103" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="104"/>
+      <c r="G12" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="104"/>
+      <c r="I12" s="103" t="s">
+        <v>175</v>
+      </c>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="103" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="104"/>
+      <c r="G13" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="104"/>
+      <c r="I13" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="101"/>
+      <c r="G14" s="100" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="101"/>
+      <c r="I14" s="100" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="101"/>
+      <c r="G15" s="100" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="101"/>
+      <c r="G16" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="101"/>
+      <c r="I16" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="103" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="104"/>
+      <c r="G17" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="104"/>
+      <c r="I17" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="101"/>
+      <c r="G18" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="101"/>
+      <c r="I18" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="21">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="104"/>
+      <c r="G19" s="103" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="104"/>
+      <c r="I19" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="21">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="101"/>
+      <c r="G20" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="101"/>
+      <c r="I20" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" s="21">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="104"/>
+      <c r="G21" s="103" t="s">
+        <v>200</v>
+      </c>
+      <c r="H21" s="104"/>
+      <c r="I21" s="103" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" s="21">
+        <f>SUM(P8:P21)</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="32">
+        <v>1</v>
+      </c>
+      <c r="O24" s="32">
+        <v>50</v>
+      </c>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="O25" s="33">
+        <v>150</v>
+      </c>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="O26" s="33">
+        <v>300</v>
+      </c>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="D7:O22"/>
+  <mergeCells count="51">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:L7"/>
+  </mergeCells>
+  <phoneticPr fontId="13"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
+      <formula1>"入力,出力,処理,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N21">
+      <formula1>"低,中,高,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O21">
+      <formula1>"小,中,大"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor indexed="30"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.25" style="2" customWidth="1"/>
+    <col min="13" max="15" width="10.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="2"/>
+    <col min="19" max="19" width="3.25" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A1" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
+        <f>表紙_外部!D10</f>
+        <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
+      </c>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="19">
+        <f>表紙_外部!P1</f>
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1"/>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="20"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="21"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="21"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="21"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="98"/>
+      <c r="G7" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="98"/>
+      <c r="I7" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="64">
+        <v>1</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="101"/>
+      <c r="G8" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="101"/>
+      <c r="I8" s="100" t="s">
+        <v>235</v>
+      </c>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N8" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="21">
+        <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$24,IF(N8="中",$N$25,$N$26))*IF(O8="小",$O$24,IF(O8="中",$O$25,$O$26))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="64">
+        <v>2</v>
+      </c>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="100" t="s">
+        <v>222</v>
+      </c>
+      <c r="H9" s="101"/>
+      <c r="I9" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N9" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="21">
+        <f t="shared" ref="P9:P21" si="0">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="64">
+        <v>3</v>
+      </c>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="100" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="101"/>
+      <c r="I10" s="100" t="s">
+        <v>237</v>
+      </c>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N10" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="65">
+        <v>4</v>
+      </c>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="107" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="108"/>
+      <c r="I11" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="N11" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="64">
+        <v>5</v>
+      </c>
+      <c r="E12" s="100" t="s">
+        <v>226</v>
+      </c>
+      <c r="F12" s="101"/>
+      <c r="G12" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="101"/>
+      <c r="I12" s="100" t="s">
+        <v>235</v>
+      </c>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N12" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="64">
+        <v>6</v>
+      </c>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="100" t="s">
+        <v>222</v>
+      </c>
+      <c r="H13" s="101"/>
+      <c r="I13" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N13" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="64">
+        <v>7</v>
+      </c>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="100" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="101"/>
+      <c r="I14" s="100" t="s">
+        <v>240</v>
+      </c>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N14" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="64">
+        <v>8</v>
+      </c>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="100" t="s">
+        <v>224</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="100" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N15" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="64">
+        <v>9</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="101"/>
+      <c r="G16" s="100" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="101"/>
+      <c r="I16" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="64">
+        <v>10</v>
+      </c>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="100" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" s="101"/>
+      <c r="I17" s="100" t="s">
+        <v>243</v>
+      </c>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="64">
+        <v>11</v>
+      </c>
+      <c r="E18" s="100"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="100" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="101"/>
+      <c r="I18" s="100" t="s">
+        <v>244</v>
+      </c>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="64">
+        <v>12</v>
+      </c>
+      <c r="E19" s="100" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="101"/>
+      <c r="G19" s="100" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" s="101"/>
+      <c r="I19" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="21">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="64">
+        <v>13</v>
+      </c>
+      <c r="E20" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="101"/>
+      <c r="G20" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="H20" s="101"/>
+      <c r="I20" s="100" t="s">
+        <v>246</v>
+      </c>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N20" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="64">
+        <v>14</v>
+      </c>
+      <c r="E21" s="100" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="101"/>
+      <c r="G21" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="H21" s="101"/>
+      <c r="I21" s="100" t="s">
+        <v>251</v>
+      </c>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="N21" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" s="21">
+        <f>SUM(P8:P21)</f>
+        <v>1330</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -27360,20 +29514,20 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:L21"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
-      <formula1>"入力,出力,処理,その他"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O21">
+      <formula1>"小,中,大"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N21">
       <formula1>"低,中,高,その他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O21">
-      <formula1>"小,中,大"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
+      <formula1>"入力,出力,処理,その他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -27381,7 +29535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="30"/>
@@ -27389,7 +29543,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F10"/>
+      <selection activeCell="D10" sqref="D10:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
@@ -27423,7 +29577,7 @@
       </c>
       <c r="E1" s="92"/>
       <c r="F1" s="93"/>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="52" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="94" t="s">
@@ -27432,13 +29586,13 @@
       <c r="I1" s="95"/>
       <c r="J1" s="95"/>
       <c r="K1" s="96"/>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="52" t="s">
         <v>15</v>
       </c>
       <c r="O1" s="18" t="s">
@@ -27529,27 +29683,27 @@
       <c r="D7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="104" t="s">
+      <c r="F7" s="98"/>
+      <c r="G7" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="104" t="s">
+      <c r="H7" s="98"/>
+      <c r="I7" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="3" t="s">
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="52" t="s">
         <v>46</v>
       </c>
       <c r="P7" s="28" t="s">
@@ -27560,69 +29714,69 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="107" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="107" t="s">
-        <v>162</v>
-      </c>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="66" t="s">
-        <v>56</v>
+      <c r="D8" s="26">
+        <v>15</v>
+      </c>
+      <c r="E8" s="103" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="104"/>
+      <c r="G8" s="103" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" s="104"/>
+      <c r="I8" s="103" t="s">
+        <v>264</v>
+      </c>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="P8" s="21">
         <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$24,IF(N8="中",$N$25,$N$26))*IF(O8="小",$O$24,IF(O8="中",$O$25,$O$26))))</f>
-        <v>420</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="27.75" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="98" t="s">
-        <v>201</v>
-      </c>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="63" t="s">
+      <c r="D9" s="26">
+        <v>16</v>
+      </c>
+      <c r="E9" s="103" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="104"/>
+      <c r="G9" s="103" t="s">
+        <v>254</v>
+      </c>
+      <c r="H9" s="104"/>
+      <c r="I9" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="N9" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="63" t="s">
+      <c r="O9" s="29" t="s">
         <v>52</v>
       </c>
       <c r="P9" s="21">
-        <f t="shared" ref="P9" si="0">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
+        <f t="shared" ref="P9:P21" si="0">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
         <v>50</v>
       </c>
     </row>
@@ -27630,25 +29784,25 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="98" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="98" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="98" t="s">
-        <v>173</v>
-      </c>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="99"/>
+      <c r="D10" s="64">
+        <v>17</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="101"/>
+      <c r="G10" s="100" t="s">
+        <v>255</v>
+      </c>
+      <c r="H10" s="101"/>
+      <c r="I10" s="100" t="s">
+        <v>256</v>
+      </c>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="63" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="N10" s="63" t="s">
         <v>51</v>
@@ -27657,7 +29811,7 @@
         <v>52</v>
       </c>
       <c r="P10" s="21">
-        <f t="shared" ref="P10:P21" si="1">IF(N10="",0,IF(O10="",0,IF(N10="低",$N$24,IF(N10="中",$N$25,$N$26))*IF(O10="小",$O$24,IF(O10="中",$O$25,$O$26))))</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -27665,385 +29819,259 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="102"/>
-      <c r="G11" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="101" t="s">
-        <v>174</v>
-      </c>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="29" t="s">
+      <c r="D11" s="64">
+        <v>18</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" s="101"/>
+      <c r="G11" s="100" t="s">
+        <v>258</v>
+      </c>
+      <c r="H11" s="101"/>
+      <c r="I11" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>52</v>
+      <c r="N11" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="63" t="s">
+        <v>56</v>
       </c>
       <c r="P11" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="27.75" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="101" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="101" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="101" t="s">
-        <v>175</v>
-      </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="29" t="s">
+      <c r="D12" s="64">
+        <v>19</v>
+      </c>
+      <c r="E12" s="100" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="101"/>
+      <c r="G12" s="100" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" s="101"/>
+      <c r="I12" s="100" t="s">
+        <v>262</v>
+      </c>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="N12" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" s="29" t="s">
+      <c r="N12" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="63" t="s">
         <v>52</v>
       </c>
       <c r="P12" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="101" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="101" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="101" t="s">
-        <v>176</v>
-      </c>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N13" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>52</v>
-      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="27.75" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="98" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="99"/>
-      <c r="G14" s="98" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="98" t="s">
-        <v>190</v>
-      </c>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="63" t="s">
-        <v>52</v>
-      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="27.75" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="98" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="98" t="s">
-        <v>191</v>
-      </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="98" t="s">
-        <v>192</v>
-      </c>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="N15" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="63" t="s">
-        <v>52</v>
-      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
       <c r="P15" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="27.75" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="98" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="98" t="s">
-        <v>177</v>
-      </c>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="63" t="s">
-        <v>52</v>
-      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
       <c r="P16" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="27.75" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="E17" s="101" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="102"/>
-      <c r="G17" s="101" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="102"/>
-      <c r="I17" s="101" t="s">
-        <v>198</v>
-      </c>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>52</v>
-      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
       <c r="P17" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="27.75" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="98" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="98" t="s">
-        <v>178</v>
-      </c>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="O18" s="63" t="s">
-        <v>53</v>
-      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
       <c r="P18" s="21">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="27.75" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="102"/>
-      <c r="G19" s="101" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" s="102"/>
-      <c r="I19" s="101" t="s">
-        <v>196</v>
-      </c>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N19" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="O19" s="29" t="s">
-        <v>56</v>
-      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
       <c r="P19" s="21">
-        <f t="shared" si="1"/>
-        <v>420</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="27.75" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="98" t="s">
-        <v>171</v>
-      </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="99"/>
-      <c r="I20" s="98" t="s">
-        <v>199</v>
-      </c>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" s="63" t="s">
-        <v>53</v>
-      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
       <c r="P20" s="21">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="27.75" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="101" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" s="102"/>
-      <c r="G21" s="101" t="s">
-        <v>200</v>
-      </c>
-      <c r="H21" s="102"/>
-      <c r="I21" s="101" t="s">
-        <v>193</v>
-      </c>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N21" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O21" s="29" t="s">
-        <v>52</v>
-      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="27.75" customHeight="1">
@@ -28051,14 +30079,14 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
       <c r="M22" s="27"/>
       <c r="N22" s="30"/>
       <c r="O22" s="31" t="s">
@@ -28066,1073 +30094,7 @@
       </c>
       <c r="P22" s="21">
         <f>SUM(P8:P21)</f>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="22"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="32">
-        <v>1</v>
-      </c>
-      <c r="O24" s="32">
-        <v>50</v>
-      </c>
-      <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="33">
-        <v>1.2</v>
-      </c>
-      <c r="O25" s="33">
-        <v>150</v>
-      </c>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="33">
-        <v>1.4</v>
-      </c>
-      <c r="O26" s="33">
-        <v>300</v>
-      </c>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="D7:O22"/>
-  <mergeCells count="51">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:L21"/>
-  </mergeCells>
-  <phoneticPr fontId="14"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
-      <formula1>"入力,出力,処理,その他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N21">
-      <formula1>"低,中,高,その他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O21">
-      <formula1>"小,中,大"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor indexed="30"/>
-  </sheetPr>
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.25" style="2" customWidth="1"/>
-    <col min="13" max="15" width="10.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="2"/>
-    <col min="19" max="19" width="3.25" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
-        <f>表紙_外部!D10</f>
-        <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
-      </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="19">
-        <f>表紙_外部!P1</f>
-        <v>42156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1"/>
-    <row r="3" spans="1:16">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="20"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="21"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="21"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="21"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="104" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="64">
-        <v>1</v>
-      </c>
-      <c r="E8" s="98" t="s">
-        <v>225</v>
-      </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="98" t="s">
-        <v>221</v>
-      </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="98" t="s">
-        <v>235</v>
-      </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="N8" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="21">
-        <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$24,IF(N8="中",$N$25,$N$26))*IF(O8="小",$O$24,IF(O8="中",$O$25,$O$26))))</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="64">
-        <v>2</v>
-      </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="98" t="s">
-        <v>236</v>
-      </c>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="N9" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="21">
-        <f t="shared" ref="P9:P21" si="0">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="64">
-        <v>3</v>
-      </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="98" t="s">
-        <v>223</v>
-      </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="98" t="s">
-        <v>237</v>
-      </c>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="N10" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="65">
-        <v>4</v>
-      </c>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="107" t="s">
-        <v>224</v>
-      </c>
-      <c r="H11" s="108"/>
-      <c r="I11" s="107" t="s">
-        <v>238</v>
-      </c>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="N11" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="64">
-        <v>5</v>
-      </c>
-      <c r="E12" s="98" t="s">
-        <v>226</v>
-      </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="98" t="s">
-        <v>221</v>
-      </c>
-      <c r="H12" s="99"/>
-      <c r="I12" s="98" t="s">
-        <v>235</v>
-      </c>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="N12" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="64">
-        <v>6</v>
-      </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="98" t="s">
-        <v>239</v>
-      </c>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="N13" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="64">
-        <v>7</v>
-      </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="98" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="98" t="s">
-        <v>240</v>
-      </c>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="N14" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="64">
-        <v>8</v>
-      </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="98" t="s">
-        <v>224</v>
-      </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="98" t="s">
-        <v>241</v>
-      </c>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="N15" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="64">
-        <v>9</v>
-      </c>
-      <c r="E16" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="98" t="s">
-        <v>228</v>
-      </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="98" t="s">
-        <v>242</v>
-      </c>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="64">
-        <v>10</v>
-      </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="98" t="s">
-        <v>229</v>
-      </c>
-      <c r="H17" s="99"/>
-      <c r="I17" s="98" t="s">
-        <v>243</v>
-      </c>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="64">
-        <v>11</v>
-      </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="98" t="s">
-        <v>230</v>
-      </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="98" t="s">
-        <v>244</v>
-      </c>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="O18" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="21">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="64">
-        <v>12</v>
-      </c>
-      <c r="E19" s="98" t="s">
-        <v>234</v>
-      </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="98" t="s">
-        <v>231</v>
-      </c>
-      <c r="H19" s="99"/>
-      <c r="I19" s="98" t="s">
-        <v>245</v>
-      </c>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="N19" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="O19" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="21">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="64">
-        <v>13</v>
-      </c>
-      <c r="E20" s="98" t="s">
-        <v>233</v>
-      </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="98" t="s">
-        <v>232</v>
-      </c>
-      <c r="H20" s="99"/>
-      <c r="I20" s="98" t="s">
-        <v>246</v>
-      </c>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="N20" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="21">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="64">
-        <v>14</v>
-      </c>
-      <c r="E21" s="98" t="s">
-        <v>249</v>
-      </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="98" t="s">
-        <v>250</v>
-      </c>
-      <c r="H21" s="99"/>
-      <c r="I21" s="98" t="s">
-        <v>251</v>
-      </c>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="N21" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="O21" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" s="21">
-        <f>SUM(P8:P21)</f>
-        <v>1330</v>
+        <v>640</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -29508,963 +30470,7 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:L7"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O21">
-      <formula1>"小,中,大"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N21">
-      <formula1>"低,中,高,その他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
-      <formula1>"入力,出力,処理,その他"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor indexed="30"/>
-  </sheetPr>
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.25" style="2" customWidth="1"/>
-    <col min="13" max="15" width="10.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="2"/>
-    <col min="19" max="19" width="3.25" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
-        <f>表紙_外部!D10</f>
-        <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
-      </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="19">
-        <f>表紙_外部!P1</f>
-        <v>42156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1"/>
-    <row r="3" spans="1:16">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="20"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="21"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="21"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="21"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="104" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="26">
-        <v>15</v>
-      </c>
-      <c r="E8" s="101" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="101" t="s">
-        <v>248</v>
-      </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="101" t="s">
-        <v>264</v>
-      </c>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="21">
-        <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$24,IF(N8="中",$N$25,$N$26))*IF(O8="小",$O$24,IF(O8="中",$O$25,$O$26))))</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="26">
-        <v>16</v>
-      </c>
-      <c r="E9" s="101" t="s">
-        <v>252</v>
-      </c>
-      <c r="F9" s="102"/>
-      <c r="G9" s="101" t="s">
-        <v>254</v>
-      </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="101" t="s">
-        <v>263</v>
-      </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="21">
-        <f t="shared" ref="P9:P21" si="0">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="64">
-        <v>17</v>
-      </c>
-      <c r="E10" s="98" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="98" t="s">
-        <v>255</v>
-      </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="98" t="s">
-        <v>256</v>
-      </c>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="N10" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="64">
-        <v>18</v>
-      </c>
-      <c r="E11" s="98" t="s">
-        <v>257</v>
-      </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="98" t="s">
-        <v>258</v>
-      </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="98" t="s">
-        <v>259</v>
-      </c>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="21">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="64">
-        <v>19</v>
-      </c>
-      <c r="E12" s="98" t="s">
-        <v>260</v>
-      </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="98" t="s">
-        <v>261</v>
-      </c>
-      <c r="H12" s="99"/>
-      <c r="I12" s="98" t="s">
-        <v>262</v>
-      </c>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="21">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" s="21">
-        <f>SUM(P8:P21)</f>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="22"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="32">
-        <v>1</v>
-      </c>
-      <c r="O24" s="32">
-        <v>50</v>
-      </c>
-      <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="33">
-        <v>1.2</v>
-      </c>
-      <c r="O25" s="33">
-        <v>150</v>
-      </c>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="33">
-        <v>1.4</v>
-      </c>
-      <c r="O26" s="33">
-        <v>300</v>
-      </c>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="D7:O22"/>
-  <mergeCells count="51">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:L21"/>
-  </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
       <formula1>"入力,出力,処理,その他"</formula1>
@@ -30632,21 +30638,21 @@
       <c r="A6" s="55"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="112" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115" t="s">
+      <c r="H6" s="120"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
       <c r="M6" s="56"/>
       <c r="N6" s="56"/>
       <c r="O6" s="56"/>
@@ -30660,21 +30666,21 @@
       <c r="A7" s="55"/>
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="113" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="110" t="s">
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110" t="s">
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
       <c r="M7" s="56"/>
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
@@ -30688,21 +30694,21 @@
       <c r="A8" s="55"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="110" t="s">
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110" t="s">
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
       <c r="M8" s="56"/>
       <c r="N8" s="56"/>
       <c r="O8" s="56"/>
@@ -30716,21 +30722,21 @@
       <c r="A9" s="55"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="113" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="110" t="s">
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110" t="s">
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
       <c r="M9" s="56"/>
       <c r="N9" s="56"/>
       <c r="O9" s="56"/>
@@ -30744,21 +30750,21 @@
       <c r="A10" s="55"/>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="113" t="s">
         <v>207</v>
       </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="110" t="s">
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110" t="s">
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
       <c r="M10" s="56"/>
       <c r="N10" s="56"/>
       <c r="O10" s="56"/>
@@ -30772,51 +30778,51 @@
       <c r="A11" s="55"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="113" t="s">
         <v>208</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="110" t="s">
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110" t="s">
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
       <c r="M11" s="56"/>
       <c r="N11" s="56"/>
       <c r="O11" s="56"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="118" t="s">
+      <c r="R11" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="S11" s="118"/>
+      <c r="S11" s="110"/>
       <c r="T11" s="21"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="55"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="113" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="110" t="s">
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110" t="s">
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
       <c r="M12" s="56"/>
       <c r="N12" s="56"/>
       <c r="O12" s="56"/>
@@ -30830,21 +30836,21 @@
       <c r="A13" s="55"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="113" t="s">
         <v>210</v>
       </c>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="110" t="s">
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110" t="s">
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
       <c r="M13" s="56"/>
       <c r="N13" s="56"/>
       <c r="O13" s="56"/>
@@ -30858,21 +30864,21 @@
       <c r="A14" s="55"/>
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
-      <c r="D14" s="116" t="s">
+      <c r="D14" s="113" t="s">
         <v>211</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="110" t="s">
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110" t="s">
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
       <c r="M14" s="56"/>
       <c r="N14" s="56"/>
       <c r="O14" s="56"/>
@@ -30886,21 +30892,21 @@
       <c r="A15" s="55"/>
       <c r="B15" s="56"/>
       <c r="C15" s="56"/>
-      <c r="D15" s="116" t="s">
+      <c r="D15" s="113" t="s">
         <v>212</v>
       </c>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="110" t="s">
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110" t="s">
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
       <c r="M15" s="56"/>
       <c r="N15" s="56"/>
       <c r="O15" s="56"/>
@@ -30914,21 +30920,21 @@
       <c r="A16" s="55"/>
       <c r="B16" s="56"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="116" t="s">
+      <c r="D16" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="110" t="s">
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110" t="s">
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
       <c r="M16" s="56"/>
       <c r="N16" s="56"/>
       <c r="O16" s="56"/>
@@ -30942,28 +30948,28 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="116" t="s">
+      <c r="D17" s="113" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="111" t="s">
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111" t="s">
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="54"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
       <c r="T17" s="21"/>
     </row>
     <row r="18" spans="1:20">
@@ -31044,8 +31050,8 @@
       <c r="I21" s="54"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -31133,10 +31139,10 @@
       <c r="I25" s="54"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="119"/>
+      <c r="O25" s="116"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -31158,7 +31164,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-      <c r="O26" s="119"/>
+      <c r="O26" s="116"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
@@ -31200,7 +31206,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="119"/>
+      <c r="M28" s="116"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
@@ -31222,7 +31228,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="119"/>
+      <c r="M29" s="116"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
@@ -31244,7 +31250,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="119"/>
+      <c r="M30" s="116"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
@@ -31316,8 +31322,8 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="120"/>
+      <c r="S33" s="110"/>
+      <c r="T33" s="117"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="7"/>
@@ -31334,10 +31340,10 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="118"/>
-      <c r="P34" s="118"/>
-      <c r="Q34" s="118"/>
-      <c r="R34" s="118"/>
+      <c r="O34" s="110"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="110"/>
+      <c r="R34" s="110"/>
       <c r="S34" s="9"/>
       <c r="T34" s="21"/>
     </row>
@@ -31375,8 +31381,8 @@
       <c r="I36" s="58"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="121"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="118"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
@@ -31446,9 +31452,9 @@
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
-      <c r="Q39" s="118"/>
-      <c r="R39" s="118"/>
-      <c r="S39" s="118"/>
+      <c r="Q39" s="110"/>
+      <c r="R39" s="110"/>
+      <c r="S39" s="110"/>
       <c r="T39" s="21"/>
     </row>
     <row r="40" spans="1:20">
@@ -31475,6 +31481,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="L36:M36"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F1:J1"/>
@@ -31491,42 +31531,8 @@
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -32284,7 +32290,7 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -33036,7 +33042,7 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
